--- a/407_eth/Map Registers GP2Yv3_eth.xlsx
+++ b/407_eth/Map Registers GP2Yv3_eth.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CCBE2E-9220-40D8-8A14-492BC4CB964E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BC356F-8E6A-4B50-9BD4-C637688780EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="89">
   <si>
     <t>Десятичная</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Имя регистра</t>
   </si>
   <si>
-    <t>0x00</t>
-  </si>
-  <si>
     <t>0x01</t>
   </si>
   <si>
@@ -154,12 +151,6 @@
     <t xml:space="preserve">включение питания сенсоров </t>
   </si>
   <si>
-    <t>Допустимые значения выходные</t>
-  </si>
-  <si>
-    <t>Допустимые значения входные</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -175,12 +166,6 @@
     <t>запись глубины накопления данных</t>
   </si>
   <si>
-    <t>запись время фильтра "дребезга"</t>
-  </si>
-  <si>
-    <t>чтение время фильтра "дребезга"</t>
-  </si>
-  <si>
     <t>Время каллибровки</t>
   </si>
   <si>
@@ -206,6 +191,102 @@
   </si>
   <si>
     <t>расстояние измеренное ултразвуком</t>
+  </si>
+  <si>
+    <t>0x14</t>
+  </si>
+  <si>
+    <t>0x15</t>
+  </si>
+  <si>
+    <t>0x16</t>
+  </si>
+  <si>
+    <t>0x17</t>
+  </si>
+  <si>
+    <t>0x19</t>
+  </si>
+  <si>
+    <t>0x1A</t>
+  </si>
+  <si>
+    <t>0x1B</t>
+  </si>
+  <si>
+    <t>0x1C</t>
+  </si>
+  <si>
+    <t>0x1D</t>
+  </si>
+  <si>
+    <t>0x1E</t>
+  </si>
+  <si>
+    <t>0x1F</t>
+  </si>
+  <si>
+    <t>0x21</t>
+  </si>
+  <si>
+    <t>0x20</t>
+  </si>
+  <si>
+    <t>0x18</t>
+  </si>
+  <si>
+    <t>0x22</t>
+  </si>
+  <si>
+    <t>коллибровка S1</t>
+  </si>
+  <si>
+    <t>коллибровка S2</t>
+  </si>
+  <si>
+    <t>call1</t>
+  </si>
+  <si>
+    <t>call2</t>
+  </si>
+  <si>
+    <t>setTrigger S1</t>
+  </si>
+  <si>
+    <t>setTrigger S2</t>
+  </si>
+  <si>
+    <t>Усстановка значения которое добовляется к значению каллибровки (отступ от ленты)</t>
+  </si>
+  <si>
+    <t>Время детектирования обекта если обект меньше этого времени он не будет обнаружен</t>
+  </si>
+  <si>
+    <t>0-5000</t>
+  </si>
+  <si>
+    <t>0-4096</t>
+  </si>
+  <si>
+    <t>значения в отсчетах АЦП</t>
+  </si>
+  <si>
+    <t>0-16</t>
+  </si>
+  <si>
+    <t>Запускает оба датчика на оба датчика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Допустимые значения </t>
+  </si>
+  <si>
+    <t>чтение времени фильтра "дребезга"</t>
+  </si>
+  <si>
+    <t>запись времени, фильтра "дребезга" время в милисекундах</t>
+  </si>
+  <si>
+    <t>чтение времени, фильтра "дребезга"</t>
   </si>
 </sst>
 </file>
@@ -496,7 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -587,6 +668,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -931,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI34"/>
+  <dimension ref="A1:BI37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,13 +1056,11 @@
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F3" s="5"/>
       <c r="G3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -989,32 +1071,32 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="11">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="12"/>
@@ -1026,72 +1108,72 @@
       <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="F6" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="11">
         <v>4</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="F7" s="30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7">
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="11">
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -1103,48 +1185,60 @@
         <v>7</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="F10" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="15"/>
+        <v>46</v>
+      </c>
+      <c r="G10" s="15">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="11">
         <v>8</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="F11" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="G11" s="12">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7">
         <v>9</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="F12" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="G12" s="21">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
@@ -1154,16 +1248,20 @@
         <v>10</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="23" t="s">
+        <v>83</v>
+      </c>
       <c r="F13" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="G13" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>14</v>
       </c>
@@ -1171,65 +1269,89 @@
         <v>11</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+        <v>25</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>80</v>
+      </c>
       <c r="F14" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="G14" s="25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" s="11">
         <v>12</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+        <v>30</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>80</v>
+      </c>
       <c r="F15" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="G15" s="25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7">
         <v>13</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>80</v>
+      </c>
       <c r="F16" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:61" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
-        <v>17</v>
+        <v>87</v>
+      </c>
+      <c r="G16" s="25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="B17" s="11">
         <v>14</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+        <v>32</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>80</v>
+      </c>
       <c r="F17" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="25"/>
+        <v>87</v>
+      </c>
+      <c r="G17" s="25">
+        <v>400</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1286,93 +1408,99 @@
       <c r="BI17" s="2"/>
     </row>
     <row r="18" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="7">
         <v>15</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="25"/>
+        <v>48</v>
+      </c>
+      <c r="G18" s="25">
+        <v>5000</v>
+      </c>
     </row>
     <row r="19" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="11">
         <v>16</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="25"/>
+        <v>48</v>
+      </c>
+      <c r="G19" s="25">
+        <v>5000</v>
+      </c>
     </row>
     <row r="20" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B20" s="7">
         <v>17</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="25"/>
+        <v>36</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>84</v>
+      </c>
       <c r="E20" s="25"/>
       <c r="F20" s="25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B21" s="11">
         <v>18</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="22" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B22" s="7">
         <v>19</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B23" s="7">
         <v>20</v>
@@ -1385,7 +1513,7 @@
     </row>
     <row r="24" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B24" s="11">
         <v>21</v>
@@ -1398,63 +1526,91 @@
     </row>
     <row r="25" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B25" s="7">
         <v>22</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="25"/>
+      <c r="C25" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>72</v>
+      </c>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" s="7">
         <v>23</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="25"/>
+      <c r="C26" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
     </row>
-    <row r="27" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="22" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B27" s="11">
         <v>24</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-    </row>
-    <row r="28" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B28" s="7">
         <v>25</v>
       </c>
-      <c r="C28" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="C28" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="F28" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="25"/>
+        <v>82</v>
+      </c>
+      <c r="G28" s="25">
+        <v>100</v>
+      </c>
     </row>
     <row r="29" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="22"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="7">
+        <v>26</v>
+      </c>
       <c r="C29" s="27"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -1462,8 +1618,12 @@
       <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="22"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="7">
+        <v>27</v>
+      </c>
       <c r="C30" s="27"/>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -1471,8 +1631,12 @@
       <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="22"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="11">
+        <v>28</v>
+      </c>
       <c r="C31" s="27"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -1480,8 +1644,12 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="7">
+        <v>29</v>
+      </c>
       <c r="C32" s="27"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -1489,8 +1657,12 @@
       <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="22"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="7">
+        <v>30</v>
+      </c>
       <c r="C33" s="27"/>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -1498,13 +1670,60 @@
       <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="22"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="7">
+        <v>31</v>
+      </c>
       <c r="C34" s="27"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="7">
+        <v>32</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="7">
+        <v>33</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="7">
+        <v>34</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/407_eth/Map Registers GP2Yv3_eth.xlsx
+++ b/407_eth/Map Registers GP2Yv3_eth.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BC356F-8E6A-4B50-9BD4-C637688780EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CAF99C-FD55-4FEC-B3F9-5C1295781221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="105">
   <si>
     <t>Десятичная</t>
   </si>
@@ -100,18 +100,6 @@
     <t>r_timOut</t>
   </si>
   <si>
-    <t>w_Depth2</t>
-  </si>
-  <si>
-    <t>w_Depth</t>
-  </si>
-  <si>
-    <t>r_Depth2</t>
-  </si>
-  <si>
-    <t>r_Depth</t>
-  </si>
-  <si>
     <t>r_timOut2</t>
   </si>
   <si>
@@ -160,12 +148,6 @@
     <t>сырые данные</t>
   </si>
   <si>
-    <t>чтение глубины накопления данных</t>
-  </si>
-  <si>
-    <t>запись глубины накопления данных</t>
-  </si>
-  <si>
     <t>Время каллибровки</t>
   </si>
   <si>
@@ -271,22 +253,89 @@
     <t>значения в отсчетах АЦП</t>
   </si>
   <si>
-    <t>0-16</t>
-  </si>
-  <si>
     <t>Запускает оба датчика на оба датчика</t>
   </si>
   <si>
     <t xml:space="preserve">Допустимые значения </t>
   </si>
   <si>
-    <t>чтение времени фильтра "дребезга"</t>
-  </si>
-  <si>
     <t>запись времени, фильтра "дребезга" время в милисекундах</t>
   </si>
   <si>
     <t>чтение времени, фильтра "дребезга"</t>
+  </si>
+  <si>
+    <t>GetTrigger S1</t>
+  </si>
+  <si>
+    <t>GetTrigger S2</t>
+  </si>
+  <si>
+    <t>1-каллибровка дистанции
+2-каллибровка времени</t>
+  </si>
+  <si>
+    <t>1 или 2</t>
+  </si>
+  <si>
+    <t>StatusCalibration s1</t>
+  </si>
+  <si>
+    <t>StatusCalibration s2</t>
+  </si>
+  <si>
+    <t>если калибруется вернет 1 иначе 0</t>
+  </si>
+  <si>
+    <t>Установка. допуск в + для времени детектирования</t>
+  </si>
+  <si>
+    <t>Чтение. допуск в + для времени детектирования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">установка канала в котором сохранено время детектирования </t>
+  </si>
+  <si>
+    <t xml:space="preserve">чтение канала в котором сохранено время детектирования </t>
+  </si>
+  <si>
+    <t>0-10000</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>0x23</t>
+  </si>
+  <si>
+    <t>0x24</t>
+  </si>
+  <si>
+    <t>0x25</t>
+  </si>
+  <si>
+    <t>SetOffsetTime S1</t>
+  </si>
+  <si>
+    <t>GetOffsetTime  S1</t>
+  </si>
+  <si>
+    <t>SetCallChanel  S1</t>
+  </si>
+  <si>
+    <t>GetCallChanel  S1</t>
+  </si>
+  <si>
+    <t>SetOffsetTime S2</t>
+  </si>
+  <si>
+    <t>GetOffsetTime  S2</t>
+  </si>
+  <si>
+    <t>SetCallChanel  S2</t>
+  </si>
+  <si>
+    <t>GetCallChanel  S2</t>
   </si>
 </sst>
 </file>
@@ -318,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,8 +397,14 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -388,21 +443,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -411,19 +451,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -466,9 +493,66 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -479,7 +563,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -492,10 +598,88 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -503,10 +687,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -515,61 +710,35 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -577,99 +746,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1015,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI37"/>
+  <dimension ref="A1:BI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1027,20 +1248,23 @@
     <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="45.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" style="46" customWidth="1"/>
     <col min="7" max="7" width="25.5546875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="35"/>
+      <c r="F1" s="41"/>
+    </row>
     <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -1052,304 +1276,272 @@
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7">
-        <v>3</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
         <v>7</v>
       </c>
-      <c r="B7" s="11">
-        <v>4</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
         <v>9</v>
       </c>
-      <c r="B9" s="11">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8">
         <v>10</v>
       </c>
-      <c r="B10" s="7">
-        <v>7</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
         <v>11</v>
       </c>
-      <c r="B11" s="11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="C14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8">
+        <v>12</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6">
+        <v>13</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="8">
+        <v>14</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7">
-        <v>9</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="11">
-        <v>10</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="7">
-        <v>11</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="D17" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="25">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="11">
-        <v>12</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="25">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7">
-        <v>13</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="25">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:61" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="11">
-        <v>14</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="25">
+      <c r="G17" s="18">
         <v>400</v>
       </c>
       <c r="H17" s="2"/>
@@ -1408,322 +1600,562 @@
       <c r="BI17" s="2"/>
     </row>
     <row r="18" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>15</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="18">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="8">
+        <v>16</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="18">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25" t="s">
+      <c r="B20" s="6">
+        <v>17</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="51"/>
+    </row>
+    <row r="21" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="8">
+        <v>18</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="6">
+        <v>19</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="25">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
+      <c r="D22" s="33"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="6">
         <v>20</v>
       </c>
-      <c r="B19" s="11">
-        <v>16</v>
-      </c>
-      <c r="C19" s="27" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="8">
+        <v>21</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="6">
+        <v>22</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="6">
+        <v>23</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="8">
+        <v>24</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="6">
+        <v>25</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="6">
+        <v>26</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="6">
+        <v>27</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="8">
+        <v>28</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="6">
+        <v>29</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="6">
+        <v>30</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="45"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="6">
+        <v>31</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="45"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="6">
+        <v>32</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="45"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="6">
+        <v>33</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="45"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="6">
         <v>34</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="25">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="22" t="s">
+      <c r="C37" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="45"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="6">
+        <v>35</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="45"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="8">
+        <v>36</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="45"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="6">
         <v>37</v>
       </c>
-      <c r="B20" s="7">
-        <v>17</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="11">
-        <v>18</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="7">
-        <v>19</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="22" t="s">
+      <c r="C40" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="45"/>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="6">
+        <v>38</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="6">
+        <v>39</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="6">
+        <v>40</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="6">
+        <v>41</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="6">
+        <v>42</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="7">
-        <v>20</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="22" t="s">
+      <c r="B46" s="6">
+        <v>43</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="18"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="11">
-        <v>21</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="22" t="s">
+      <c r="B47" s="8">
+        <v>44</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="18"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="7">
-        <v>22</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="22" t="s">
+      <c r="B48" s="6">
+        <v>45</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="18"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="7">
-        <v>23</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="11">
-        <v>24</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="7">
-        <v>25</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="7">
-        <v>26</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-    </row>
-    <row r="30" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="7">
-        <v>27</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-    </row>
-    <row r="31" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="11">
-        <v>28</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="7">
-        <v>29</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="7">
-        <v>30</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="7">
-        <v>31</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="7">
-        <v>32</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="7">
-        <v>33</v>
-      </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="7">
-        <v>34</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" s="25"/>
+      <c r="B49" s="6">
+        <v>46</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/407_eth/Map Registers GP2Yv3_eth.xlsx
+++ b/407_eth/Map Registers GP2Yv3_eth.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CAF99C-FD55-4FEC-B3F9-5C1295781221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3770D5A0-F3C0-4301-87BC-97FD21CD2FBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
   <si>
     <t>Десятичная</t>
   </si>
@@ -161,12 +161,6 @@
   </si>
   <si>
     <t>0x13</t>
-  </si>
-  <si>
-    <t>ultrasens(1)/opt(0)</t>
-  </si>
-  <si>
-    <t>distance</t>
   </si>
   <si>
     <t>переключение между ултразвуком и оптикой</t>
@@ -336,6 +330,18 @@
   </si>
   <si>
     <t>GetCallChanel  S2</t>
+  </si>
+  <si>
+    <t>distance S1</t>
+  </si>
+  <si>
+    <t>distance S2</t>
+  </si>
+  <si>
+    <t>S1 ultrasens(2)/opt(1)</t>
+  </si>
+  <si>
+    <t>S2 ultrasens(2)/opt(1)</t>
   </si>
 </sst>
 </file>
@@ -805,93 +811,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1238,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,23 +1254,23 @@
     <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="45.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" style="38" customWidth="1"/>
-    <col min="6" max="6" width="41.44140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" style="36" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" style="44" customWidth="1"/>
     <col min="7" max="7" width="25.5546875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="35"/>
-      <c r="F1" s="41"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:7" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -1276,14 +1282,14 @@
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26" t="s">
+      <c r="E3" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1297,14 +1303,14 @@
       <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="29" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -1316,14 +1322,14 @@
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="29" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
@@ -1335,16 +1341,16 @@
       <c r="C6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="37" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -1356,16 +1362,16 @@
       <c r="C7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -1377,9 +1383,9 @@
       <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="34" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="32" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="11"/>
@@ -1394,12 +1400,12 @@
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="34" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="26"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
@@ -1409,9 +1415,9 @@
         <v>7</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="34"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1422,10 +1428,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="28"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
@@ -1435,10 +1441,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="30"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
@@ -1448,9 +1454,9 @@
         <v>10</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="43"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1463,14 +1469,14 @@
       <c r="C14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>80</v>
+      <c r="D14" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>78</v>
       </c>
       <c r="G14" s="18">
         <v>400</v>
@@ -1486,14 +1492,14 @@
       <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>80</v>
+      <c r="D15" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>78</v>
       </c>
       <c r="G15" s="18">
         <v>400</v>
@@ -1509,14 +1515,14 @@
       <c r="C16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>79</v>
+      <c r="D16" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>77</v>
       </c>
       <c r="G16" s="18">
         <v>400</v>
@@ -1532,14 +1538,14 @@
       <c r="C17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>79</v>
+      <c r="D17" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>77</v>
       </c>
       <c r="G17" s="18">
         <v>400</v>
@@ -1609,9 +1615,9 @@
       <c r="C18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="45" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="18">
@@ -1628,9 +1634,9 @@
       <c r="C19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="45" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="18">
@@ -1644,19 +1650,19 @@
       <c r="B20" s="6">
         <v>17</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54" t="s">
+      <c r="D20" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="51"/>
-    </row>
-    <row r="21" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="49"/>
+    </row>
+    <row r="21" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>45</v>
       </c>
@@ -1664,12 +1670,14 @@
         <v>18</v>
       </c>
       <c r="C21" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="43" t="s">
         <v>47</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="45" t="s">
-        <v>49</v>
       </c>
       <c r="G21" s="18"/>
     </row>
@@ -1681,59 +1689,69 @@
         <v>19</v>
       </c>
       <c r="C22" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="45" t="s">
-        <v>50</v>
-      </c>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="6">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="45"/>
+      <c r="C23" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>47</v>
+      </c>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="8">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="45"/>
+      <c r="C24" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="43" t="s">
+        <v>48</v>
+      </c>
       <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="6">
         <v>22</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="45" t="s">
-        <v>83</v>
+      <c r="D25" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="G25" s="18">
         <v>1</v>
@@ -1741,22 +1759,22 @@
     </row>
     <row r="26" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" s="6">
         <v>23</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="45" t="s">
-        <v>83</v>
+      <c r="D26" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="G26" s="18">
         <v>1</v>
@@ -1764,22 +1782,22 @@
     </row>
     <row r="27" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" s="8">
         <v>24</v>
       </c>
       <c r="C27" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="45" t="s">
-        <v>76</v>
+      <c r="E27" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="G27" s="18">
         <v>100</v>
@@ -1787,22 +1805,22 @@
     </row>
     <row r="28" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="6">
         <v>25</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="45" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="G28" s="18">
         <v>100</v>
@@ -1810,261 +1828,261 @@
     </row>
     <row r="29" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" s="6">
         <v>26</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" s="6">
         <v>27</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="45" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="G30" s="18"/>
     </row>
     <row r="31" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" s="8">
         <v>28</v>
       </c>
       <c r="C31" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="45"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="43"/>
       <c r="G31" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" s="6">
         <v>29</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="45"/>
+        <v>84</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="35"/>
+      <c r="F32" s="43"/>
       <c r="G32" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" s="6">
         <v>30</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" s="45"/>
+        <v>95</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="43"/>
       <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B34" s="6">
         <v>31</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" s="45"/>
+        <v>99</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="43"/>
       <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B35" s="6">
         <v>32</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="F35" s="45"/>
+        <v>96</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="43"/>
       <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" s="6">
         <v>33</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" s="45"/>
+        <v>100</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="43"/>
       <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B37" s="6">
         <v>34</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="45"/>
+        <v>97</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="43"/>
       <c r="G37" s="18"/>
     </row>
     <row r="38" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B38" s="6">
         <v>35</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="45"/>
+        <v>101</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="43"/>
       <c r="G38" s="18"/>
     </row>
     <row r="39" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B39" s="8">
         <v>36</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="45"/>
+      <c r="F39" s="43"/>
       <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B40" s="6">
         <v>37</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="43"/>
       <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" s="6">
         <v>38</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="45"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="43"/>
       <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B42" s="6">
         <v>39</v>
       </c>
       <c r="C42" s="18"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="45"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="43"/>
       <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" s="6">
         <v>40</v>
@@ -2072,89 +2090,89 @@
       <c r="C43" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="45" t="s">
+      <c r="D43" s="31"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="43" t="s">
         <v>44</v>
       </c>
       <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B44" s="6">
         <v>41</v>
       </c>
       <c r="C44" s="18"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="45"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="43"/>
       <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B45" s="6">
         <v>42</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="45"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="43"/>
       <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B46" s="6">
         <v>43</v>
       </c>
       <c r="C46" s="18"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="45"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="43"/>
       <c r="G46" s="18"/>
     </row>
     <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B47" s="8">
         <v>44</v>
       </c>
       <c r="C47" s="18"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="45"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="43"/>
       <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B48" s="6">
         <v>45</v>
       </c>
       <c r="C48" s="18"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="45"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="43"/>
       <c r="G48" s="18"/>
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B49" s="6">
         <v>46</v>
       </c>
       <c r="C49" s="18"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="45"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="43"/>
       <c r="G49" s="18"/>
     </row>
   </sheetData>
